--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amann\Desktop\Growth Mindset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6869CA-1A8C-4E45-99A2-9E10C8EAA29D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A156B0-7F61-4BCE-AB27-C0DFFE5F66B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="7170" windowWidth="21600" windowHeight="11010" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
+    <workbookView xWindow="2055" yWindow="4590" windowWidth="21600" windowHeight="11010" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>DevOps</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>by Dennis E. Taylor, Ray Porter, et al.</t>
+  </si>
+  <si>
+    <t>Leaders Eat Last</t>
+  </si>
+  <si>
+    <t>Simon Sinek (Author, Narrator)</t>
+  </si>
+  <si>
+    <t>Start With Why</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -789,127 +798,143 @@
         <v>49</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A156B0-7F61-4BCE-AB27-C0DFFE5F66B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAECD06-2B50-4065-80CD-74CDEC2ABECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="4590" windowWidth="21600" windowHeight="11010" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>DevOps</t>
   </si>
@@ -249,6 +249,81 @@
   </si>
   <si>
     <t>Start With Why</t>
+  </si>
+  <si>
+    <t>The 5 Languages of Appreciation in the Workplace: Empowering Organizations by Encouraging People</t>
+  </si>
+  <si>
+    <t>by Gary Chapman and Paul White</t>
+  </si>
+  <si>
+    <t>Trillion Dollar Coach: The Leadership Playbook of Silicon Valley's Bill Campbell</t>
+  </si>
+  <si>
+    <t>by Eric Schmidt , Jonathan Rosenberg, et al</t>
+  </si>
+  <si>
+    <t>The Five Temptations of a CEO : A Leadership Fable</t>
+  </si>
+  <si>
+    <t>by Patrick Lencioni</t>
+  </si>
+  <si>
+    <t>Extreme Ownership: How U.S. Navy SEALs Lead and Win</t>
+  </si>
+  <si>
+    <t>by Jocko Willink, Leif Babin</t>
+  </si>
+  <si>
+    <t>Drive: The Surprising Truth About What Motivates Us</t>
+  </si>
+  <si>
+    <t>by Daniel H. Pink</t>
+  </si>
+  <si>
+    <t>Agile Conversations: Transform Your Conversations, Transform Your Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Douglas Squirrel and Jeffrey Fredrick </t>
+  </si>
+  <si>
+    <t>Strategic Doing: Ten Skills for Agile Leadership</t>
+  </si>
+  <si>
+    <t>by Edward Morrison , Scott Hutcheson , et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fifth Discipline: The Art &amp; Practice of The Learning Organization </t>
+  </si>
+  <si>
+    <t>by Peter M. Senge</t>
+  </si>
+  <si>
+    <t>Multipliers, Revised and Updated: How the Best Leaders Make Everyone Smarter</t>
+  </si>
+  <si>
+    <t>by Liz Wiseman</t>
+  </si>
+  <si>
+    <t>The Vision Driven Leader: 10 Questions to Focus Your Efforts, Energize Your Team, and Scale Your Business</t>
+  </si>
+  <si>
+    <t>by Michael Hyatt</t>
+  </si>
+  <si>
+    <t>The Three Signs Of A Miserable Job</t>
+  </si>
+  <si>
+    <t>Hit Refresh: The Quest to Rediscover Microsoft's Soul and Imagine a Better Future for Everyone</t>
+  </si>
+  <si>
+    <t>by Satya Nadella, Greg Shaw, Jill Tracie Nichols</t>
+  </si>
+  <si>
+    <t>Measure What Matters: How Google, Bono, and the Gates Foundation Rock the World with OKRs</t>
+  </si>
+  <si>
+    <t>by John Doerr and Larry Page</t>
   </si>
 </sst>
 </file>
@@ -611,29 +686,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.3671875" customWidth="1"/>
-    <col min="4" max="4" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -641,7 +716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -649,7 +724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -657,7 +732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -665,7 +740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -673,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -681,7 +756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -689,12 +764,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -702,7 +777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -710,7 +785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -718,7 +793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -726,7 +801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -734,7 +809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -742,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -750,7 +825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -758,7 +833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -766,7 +841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -774,7 +849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>63</v>
       </c>
@@ -782,7 +857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -790,7 +865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -798,7 +873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>69</v>
       </c>
@@ -806,7 +881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>71</v>
       </c>
@@ -814,127 +889,231 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C59" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAECD06-2B50-4065-80CD-74CDEC2ABECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE587B-F7C9-4408-9563-3D8B7F6B5E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>DevOps</t>
   </si>
@@ -324,6 +324,63 @@
   </si>
   <si>
     <t>by John Doerr and Larry Page</t>
+  </si>
+  <si>
+    <t>The Art of Business Value</t>
+  </si>
+  <si>
+    <t>by Mark Schwartz  (Author), Gene Kim (Foreword)</t>
+  </si>
+  <si>
+    <t>A Seat at the Table</t>
+  </si>
+  <si>
+    <t>by Mark Schwartz  (Author)</t>
+  </si>
+  <si>
+    <t>The Lean Startup</t>
+  </si>
+  <si>
+    <t>Linchpin</t>
+  </si>
+  <si>
+    <t>by Seth Godin</t>
+  </si>
+  <si>
+    <t>The Art of Being Indispensable at Work</t>
+  </si>
+  <si>
+    <t>by Bruce Tulgan</t>
+  </si>
+  <si>
+    <t>The Leader's Guide</t>
+  </si>
+  <si>
+    <t>by Eric Ries</t>
+  </si>
+  <si>
+    <t>Objectives and Key Results</t>
+  </si>
+  <si>
+    <t>by Ben Lamorte, Paul R. Niven</t>
+  </si>
+  <si>
+    <t>The Effective Executive</t>
+  </si>
+  <si>
+    <t>by Peter F. Drucker</t>
+  </si>
+  <si>
+    <t>Lean Enterprise</t>
+  </si>
+  <si>
+    <t>by Joanne Molesky, Barry O'Reilly, Jez Humble</t>
+  </si>
+  <si>
+    <t>The Four Agreements</t>
+  </si>
+  <si>
+    <t>by don Miguel Ruiz</t>
   </si>
 </sst>
 </file>
@@ -686,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,175 +1002,255 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" t="s">
-        <v>61</v>
+      <c r="A57" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C69" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE587B-F7C9-4408-9563-3D8B7F6B5E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226429A-9E20-4887-A66A-F30551049F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>DevOps</t>
   </si>
@@ -381,6 +381,67 @@
   </si>
   <si>
     <t>by don Miguel Ruiz</t>
+  </si>
+  <si>
+    <t>Change the Culture, Change the Game: The Breakthrough Strategy for Energizing Your Organization 
+and Creating Accounta bility for Results</t>
+  </si>
+  <si>
+    <t>by Roger Connors, Tom Smith</t>
+  </si>
+  <si>
+    <t>Leading with Strategic Thinking: Four Ways Effective Leaders Gain Insight, Drive Change, and Get Results</t>
+  </si>
+  <si>
+    <t>by Aaron K. Olson, B. Keith Simerson</t>
+  </si>
+  <si>
+    <t>Tribal Leadership: Leveraging Natural Groups to Build a Thriving Organization</t>
+  </si>
+  <si>
+    <t>by Dave Logan , John King, et al.</t>
+  </si>
+  <si>
+    <t>Sooner Safer Happier: Antipatterns and Patterns for Business Agility</t>
+  </si>
+  <si>
+    <t>by Jonathan Smart , Zsolt Berend, et al.</t>
+  </si>
+  <si>
+    <t>The Founder's Mentality: How to Overcome the Predictable Crises of Growth</t>
+  </si>
+  <si>
+    <t>by Chris Zook, James Allen</t>
+  </si>
+  <si>
+    <t>The Delicate Art of Bureaucracy: Digital Transformation with the Monkey, the Razor, and the Sumo Wrestler</t>
+  </si>
+  <si>
+    <t>by Mark Schwartz</t>
+  </si>
+  <si>
+    <t>Mindset: The New Psychology of Success</t>
+  </si>
+  <si>
+    <t>by Carol S. Dweck</t>
+  </si>
+  <si>
+    <t>It Takes What It Takes: How to Think Neutrally and Gain Control of Your Life</t>
+  </si>
+  <si>
+    <t>by Trevor Moawad and Andy Staples</t>
+  </si>
+  <si>
+    <t>Dynamic Reteaming: The Art and Wisdom of Changing Teams</t>
+  </si>
+  <si>
+    <t>by Heidi Helfand, Caroline Miller, et al.</t>
+  </si>
+  <si>
+    <t>by Jim Lewis</t>
+  </si>
+  <si>
+    <t>DOMAIN DRIVEN DESIGN: A Comprehensive Beginner’s Guide to Learn How to Easily Implement Domain Driven Design</t>
   </si>
 </sst>
 </file>
@@ -743,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>90</v>
       </c>
@@ -994,7 +1055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
@@ -1002,7 +1063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
@@ -1010,7 +1071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
@@ -1018,7 +1079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
@@ -1026,7 +1087,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
@@ -1034,7 +1095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
@@ -1042,215 +1103,295 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>24</v>
+      <c r="B40" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>23</v>
+      <c r="B41" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>2</v>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>27</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C78" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C79" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226429A-9E20-4887-A66A-F30551049F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EAAE7E-7BF5-4CED-8AF3-4E6A8DF12471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>DevOps</t>
   </si>
@@ -442,6 +442,72 @@
   </si>
   <si>
     <t>DOMAIN DRIVEN DESIGN: A Comprehensive Beginner’s Guide to Learn How to Easily Implement Domain Driven Design</t>
+  </si>
+  <si>
+    <t>Breaking The Habit of Being Yourself: How to Lose Your Mind and Create a New One</t>
+  </si>
+  <si>
+    <t>by Joe Dr. Dispenza</t>
+  </si>
+  <si>
+    <t>Why Smart People Hurt: A Guide for the Bright, the Sensitive, and the Creative</t>
+  </si>
+  <si>
+    <t>by Eric Maisel, Seth Podowitz, et al.</t>
+  </si>
+  <si>
+    <t>Coach Wooden's Pyramid of Success</t>
+  </si>
+  <si>
+    <t>by John Wooden , Jay Carty , et al.</t>
+  </si>
+  <si>
+    <t>The Culture Question: How to Create a Workplace Where People Like to Work</t>
+  </si>
+  <si>
+    <t>by Randy Grieser , Eric Stutzman , et al.</t>
+  </si>
+  <si>
+    <t>by Keith Callahan</t>
+  </si>
+  <si>
+    <t>Build to Last</t>
+  </si>
+  <si>
+    <t>The Proximity Principle: The Proven Strategy That Will Lead to a Career You Love</t>
+  </si>
+  <si>
+    <t>by Ken Coleman and Ramsey Press</t>
+  </si>
+  <si>
+    <t>Rethinking Agile: Why Agile Teams Have Nothing to Do With Business Agility</t>
+  </si>
+  <si>
+    <t>by Klaus Leopold and Tia Rider</t>
+  </si>
+  <si>
+    <t>The Systems Thinker: Analytical Skills: Level Up Your Decision Making, Problem Solving, and Deduction Skills. Notice the Details Others Miss.</t>
+  </si>
+  <si>
+    <t>by Albert Rutherford and Russell Newton</t>
+  </si>
+  <si>
+    <t>Eat, Sleep, Innovate: How to Make Creativity an Everyday Habit Inside Your Organization</t>
+  </si>
+  <si>
+    <t>by Scott D. Anthony, Paul Cobban, et al.</t>
+  </si>
+  <si>
+    <t>The Innovation Stack: Building an Unbeatable Business One Crazy Idea at a Time</t>
+  </si>
+  <si>
+    <t>by Jim McKelvey</t>
+  </si>
+  <si>
+    <t>Finding Flow: The Psychology of Engagement with Everyday Life</t>
+  </si>
+  <si>
+    <t>by Mihaly Csikszentmihalyi, Sean Pratt, et al.</t>
   </si>
 </sst>
 </file>
@@ -483,12 +549,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,29 +873,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -834,7 +903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -842,7 +911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -850,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -858,7 +927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -866,7 +935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -874,7 +943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -882,516 +951,604 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="46" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C66" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>25</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
         <v>28</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>31</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
         <v>102</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
         <v>104</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>114</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
         <v>128</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C79" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>26</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C89" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C90" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EAAE7E-7BF5-4CED-8AF3-4E6A8DF12471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F25288-D0F9-4F1B-B187-9174B6C623BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
@@ -875,9 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Booklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronmann/dev/Booklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F25288-D0F9-4F1B-B187-9174B6C623BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA541B92-861E-0040-BAE4-5F03EC8F59F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Booklist" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
   <si>
     <t>DevOps</t>
   </si>
@@ -471,9 +469,6 @@
     <t>by Keith Callahan</t>
   </si>
   <si>
-    <t>Build to Last</t>
-  </si>
-  <si>
     <t>The Proximity Principle: The Proven Strategy That Will Lead to a Career You Love</t>
   </si>
   <si>
@@ -508,6 +503,159 @@
   </si>
   <si>
     <t>by Mihaly Csikszentmihalyi, Sean Pratt, et al.</t>
+  </si>
+  <si>
+    <t>Built to Last</t>
+  </si>
+  <si>
+    <t>Smarter Faster Better</t>
+  </si>
+  <si>
+    <t>by Charles Duhigg</t>
+  </si>
+  <si>
+    <t>Storytelling Skills</t>
+  </si>
+  <si>
+    <t>by Fred Hackman</t>
+  </si>
+  <si>
+    <t>DevOps for the Modern Enterprise</t>
+  </si>
+  <si>
+    <t>by Micro Hering</t>
+  </si>
+  <si>
+    <t>Kill It with Fire</t>
+  </si>
+  <si>
+    <t>by Marianne Bellotti</t>
+  </si>
+  <si>
+    <t>Pause. Breathe. Choose.</t>
+  </si>
+  <si>
+    <t>by Naz Beheshti</t>
+  </si>
+  <si>
+    <t>From Contempt to Curiosity</t>
+  </si>
+  <si>
+    <t>by Caitlin Walker</t>
+  </si>
+  <si>
+    <t>Stick Together</t>
+  </si>
+  <si>
+    <t>by Jon Gordon, Kate Leavell</t>
+  </si>
+  <si>
+    <t>Emotional Intelligence 2.0</t>
+  </si>
+  <si>
+    <t>by Travis Bradberry, Jean Greaves</t>
+  </si>
+  <si>
+    <t>The Storytelling Animal</t>
+  </si>
+  <si>
+    <t>by Johnathan Gottschall</t>
+  </si>
+  <si>
+    <t>Boundaries Updated and Expanded Edition: When to Say Yes, How to Say No To Take Control of Your Life</t>
+  </si>
+  <si>
+    <t>by John Townsend, Henry Cloud</t>
+  </si>
+  <si>
+    <t>An Elegant Puzzle: Systems of Engineering Management</t>
+  </si>
+  <si>
+    <t>by Will Larson</t>
+  </si>
+  <si>
+    <t>Thinking In Systems</t>
+  </si>
+  <si>
+    <t>by Donella H. Meadows</t>
+  </si>
+  <si>
+    <t>Staff Engineer</t>
+  </si>
+  <si>
+    <t>If you are Leading IT Professionals, This is for you.</t>
+  </si>
+  <si>
+    <t>If you are facing the decision to go into IT Leadership or continue as an individual contributor.  Read both This book and the Elegant puzzle.</t>
+  </si>
+  <si>
+    <t>The Art of Leadership</t>
+  </si>
+  <si>
+    <t>by Michael Lopp</t>
+  </si>
+  <si>
+    <t>Clean Architecture</t>
+  </si>
+  <si>
+    <t>by Robert C. Martin</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>by Susan Cain</t>
+  </si>
+  <si>
+    <t>Deep Work</t>
+  </si>
+  <si>
+    <t>by Cal Newport</t>
+  </si>
+  <si>
+    <t>7 Rules for Positive, Productive Change: Micro Shifts, Macro results</t>
+  </si>
+  <si>
+    <t>by Esther Derby</t>
+  </si>
+  <si>
+    <t>Toyota Kata</t>
+  </si>
+  <si>
+    <t>by Mike Rother</t>
+  </si>
+  <si>
+    <t>Termination Shock</t>
+  </si>
+  <si>
+    <t>by Neal Stephenson</t>
+  </si>
+  <si>
+    <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared</t>
+  </si>
+  <si>
+    <t>by Jonas Jonasson</t>
+  </si>
+  <si>
+    <t>The Advantage</t>
+  </si>
+  <si>
+    <t>I Love It Here</t>
+  </si>
+  <si>
+    <t>by Clint Pulver</t>
+  </si>
+  <si>
+    <t>Get Out of Your Head</t>
+  </si>
+  <si>
+    <t>by Jennie Allen</t>
+  </si>
+  <si>
+    <t>Grit</t>
+  </si>
+  <si>
+    <t>by Angela Duckworth</t>
   </si>
 </sst>
 </file>
@@ -873,27 +1021,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -901,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -909,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -917,7 +1067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -925,7 +1075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -933,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -941,7 +1091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -949,605 +1099,811 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
+    <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
+    <row r="33" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
+    <row r="34" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
+    <row r="36" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+    <row r="37" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="3" t="s">
+    <row r="38" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
+    <row r="39" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
+    <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+    <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="3" t="s">
+    <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="3" t="s">
+    <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="3" t="s">
+    <row r="44" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="3" t="s">
+    <row r="45" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="3" t="s">
+    <row r="46" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="3" t="s">
+    <row r="47" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="3" t="s">
+    <row r="48" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="3" t="s">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="3" t="s">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B46" s="3" t="s">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="3" t="s">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="3" t="s">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="3" t="s">
+      <c r="C54" t="s">
         <v>154</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B84" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B85" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="96" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>26</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C111" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>27</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C112" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B90" s="3" t="s">
+    <row r="113" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C113" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronmann/dev/Booklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA541B92-861E-0040-BAE4-5F03EC8F59F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3075C2B-9171-8D44-A3E1-5B3F23389856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{89EB5CE7-351A-4D85-B59C-F16EEE8666B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="240">
   <si>
     <t>DevOps</t>
   </si>
@@ -656,6 +656,102 @@
   </si>
   <si>
     <t>by Angela Duckworth</t>
+  </si>
+  <si>
+    <t>Twilight of the Idols, On Truth and Lies in a Nonmoral Sense: How to Philosophise with a Hammer</t>
+  </si>
+  <si>
+    <t>by Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Things I Overheard While Talking to Myself</t>
+  </si>
+  <si>
+    <t>by Alan Alda</t>
+  </si>
+  <si>
+    <t>The Fearless Organization: Creating Psychological Safety in the Workplace for Learning, Innovation, and Growth</t>
+  </si>
+  <si>
+    <t>by Amy C. Edmondson</t>
+  </si>
+  <si>
+    <t>Humble Inquiry, Second Edition: The Gentle Art of Asking Instead of Telling Building Positive Relationships and Better Organizations (The Humble Leadership Series)</t>
+  </si>
+  <si>
+    <t>by Edgar H. Schein, Peter A. Schein</t>
+  </si>
+  <si>
+    <t>Failure Is Not an Option: Mission Control from Mercury to Apollo 13 and Beyond</t>
+  </si>
+  <si>
+    <t>by Gene Kranz</t>
+  </si>
+  <si>
+    <t>The DevOps Handbook, Second Edition: How to Create World-Class Agility, Reliability, &amp; Security in Technology Organizations</t>
+  </si>
+  <si>
+    <t>by Gene Kim, Jez Humble</t>
+  </si>
+  <si>
+    <t>Nudge: The Final Edition: Improving Decisions About Money, Health, and the Environment</t>
+  </si>
+  <si>
+    <t>by Richard H. Thaler, Cass R. Sunstein</t>
+  </si>
+  <si>
+    <t>Think Again: The Power of Knowing What You Don't Know</t>
+  </si>
+  <si>
+    <t>by Adam Grant</t>
+  </si>
+  <si>
+    <t>The Greatest Beer Run Ever: A Memoir of Friendship, Loyalty, and War</t>
+  </si>
+  <si>
+    <t>by John "Chick" Donohue</t>
+  </si>
+  <si>
+    <t>Give and Take: A Revolutionary Approach to Success</t>
+  </si>
+  <si>
+    <t>by Adam M. Grant PhD</t>
+  </si>
+  <si>
+    <t>The Value Flywheel Effect: Power the Future and Accelerate Your Organization to the Modern Cloud</t>
+  </si>
+  <si>
+    <t>by David Anderson</t>
+  </si>
+  <si>
+    <t>When: The Scientific Secrets of Perfect Timing</t>
+  </si>
+  <si>
+    <t>Quiet Voice Fearless Leader: 10 Principles for Introverts to Awaken the Leader Inside</t>
+  </si>
+  <si>
+    <t>by Terrance Lee</t>
+  </si>
+  <si>
+    <t>Thinking, Fast and Slow</t>
+  </si>
+  <si>
+    <t>by Daniel Kahneman</t>
+  </si>
+  <si>
+    <t>Get Out of Your Head: Stopping the Spiral of Toxic Thoughts</t>
+  </si>
+  <si>
+    <t>Everything Connects: Cultivating Mindfulness, Creativity, and Innovation for Long-Term Value</t>
+  </si>
+  <si>
+    <t>by Faisal Hoque, Drake Baer</t>
+  </si>
+  <si>
+    <t>Men With Adult ADHD: Improve Concentration, Increase Productivity, and Stop Feeling Like a Failure</t>
+  </si>
+  <si>
+    <t>by Edgar Wise</t>
   </si>
 </sst>
 </file>
@@ -1021,11 +1117,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2739AC-63C3-451D-8C9F-87B4F88BA287}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1147,214 +1241,214 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>72</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>107</v>
@@ -1362,548 +1456,684 @@
     </row>
     <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+    <row r="55" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>179</v>
       </c>
       <c r="D56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+    <row r="58" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>23</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>13</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>19</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>25</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C90" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>28</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>31</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>104</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>114</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C95" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>128</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C96" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
+    <row r="97" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C97" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
+    <row r="98" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+    <row r="99" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C99" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+    <row r="100" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C100" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
+    <row r="101" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
+    <row r="102" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="3" t="s">
+    <row r="103" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
+    <row r="104" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
+    <row r="105" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
+    <row r="106" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B99" s="3" t="s">
+    <row r="107" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
+    <row r="108" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+    <row r="109" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
+    <row r="110" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
+    <row r="111" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
+    <row r="112" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>26</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C122" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>27</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C123" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C124" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>197</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C125" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>199</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C126" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
